--- a/gnome/correlation/correlation.xlsx
+++ b/gnome/correlation/correlation.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O129"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,45 +389,40 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>L4 Centrality</t>
+          <t>Global Centrality A</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Global Centrality A</t>
+          <t>Global Centrality B</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Global Centrality B</t>
+          <t>Avg Fixed Time</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Avg Fixed Time</t>
+          <t>Reopened Percent</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Reopened Percent</t>
+          <t>Assignee Component</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Assignee Component</t>
+          <t>Total Bugs</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Total Bugs</t>
+          <t>Priority</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
-        <is>
-          <t>Priority</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
         <is>
           <t>Severity</t>
         </is>
@@ -448,7 +443,6 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -479,35 +473,30 @@
           <t>0.05513</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.05213</t>
-        </is>
+      <c r="G3" t="n">
+        <v>0.1440900366336167</v>
       </c>
       <c r="H3" t="n">
-        <v>4.759907613919687e-05</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="n">
+        <v>0.05728424723380551</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>2629.13712037037</v>
       </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
         <v>5</v>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>{'High': 1, 'Normal': 4}</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
-        <is>
-          <t>{'High': 1, 'Normal': 4}</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
         <is>
           <t>{'critical': 1, 'enhancement': 1, 'major': 2, 'normal': 1}</t>
         </is>
@@ -542,35 +531,30 @@
           <t>0.05513</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.04423</t>
-        </is>
+      <c r="G4" t="n">
+        <v>0.006994859157256572</v>
       </c>
       <c r="H4" t="n">
-        <v>1.9968304018145e-05</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="n">
+        <v>0.04058475362225342</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>2535.251709104942</v>
       </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>3</v>
       </c>
-      <c r="M4" t="n">
-        <v>3</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>{'High': 2, 'Normal': 1}</t>
+        </is>
       </c>
       <c r="N4" t="inlineStr">
-        <is>
-          <t>{'High': 2, 'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
         <is>
           <t>{'major': 2, 'normal': 1}</t>
         </is>
@@ -605,35 +589,30 @@
           <t>0.05545</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.03257</t>
-        </is>
+      <c r="G5" t="n">
+        <v>0.05662365166252062</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04215262137691132</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="n">
+        <v>0.004113441896757742</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>2631.495793099653</v>
       </c>
+      <c r="J5" t="n">
+        <v>4.580152671755725</v>
+      </c>
       <c r="K5" t="n">
-        <v>4.580152671755725</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
         <v>21</v>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>{'High': 9, 'Normal': 12}</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
-        <is>
-          <t>{'High': 9, 'Normal': 12}</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
         <is>
           <t>{'critical': 2, 'major': 10, 'minor': 3, 'normal': 6}</t>
         </is>
@@ -668,35 +647,30 @@
           <t>0.05518</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.05094</t>
-        </is>
+      <c r="G6" t="n">
+        <v>0.004479877940090939</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0004246548476832119</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="n">
+        <v>0.1242482187210853</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>2647.462290895058</v>
       </c>
+      <c r="J6" t="n">
+        <v>7.920792079207921</v>
+      </c>
       <c r="K6" t="n">
-        <v>7.920792079207921</v>
+        <v>9</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
-      </c>
-      <c r="M6" t="n">
         <v>15</v>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>{'High': 7, 'Immediate': 1, 'Normal': 3, 'Urgent': 4}</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
-        <is>
-          <t>{'High': 7, 'Immediate': 1, 'Normal': 3, 'Urgent': 4}</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
         <is>
           <t>{'blocker': 2, 'critical': 5, 'major': 7, 'minor': 1}</t>
         </is>
@@ -731,35 +705,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.04393</t>
-        </is>
+      <c r="G7" t="n">
+        <v>0.1721670175676916</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.02235529269002705</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="n">
+        <v>0.01076024278470689</v>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>2603.434956018518</v>
       </c>
+      <c r="J7" t="n">
+        <v>8.163265306122449</v>
+      </c>
       <c r="K7" t="n">
-        <v>8.163265306122449</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
         <v>5</v>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>{'High': 2, 'Immediate': 1, 'Normal': 2}</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
-        <is>
-          <t>{'High': 2, 'Immediate': 1, 'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
         <is>
           <t>{'critical': 3, 'major': 2}</t>
         </is>
@@ -794,35 +763,30 @@
           <t>0.05491</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.05211</t>
-        </is>
+      <c r="G8" t="n">
+        <v>0.006955193645238953</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.343065403528928e-06</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="n">
+        <v>0.0197637140636632</v>
+      </c>
+      <c r="I8" s="1" t="n">
         <v>2549.011324588472</v>
       </c>
+      <c r="J8" t="n">
+        <v>3.846153846153846</v>
+      </c>
       <c r="K8" t="n">
-        <v>3.846153846153846</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
-      </c>
-      <c r="M8" t="n">
         <v>9</v>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>{'Normal': 9}</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
-        <is>
-          <t>{'Normal': 9}</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
         <is>
           <t>{'critical': 1, 'enhancement': 2, 'normal': 6}</t>
         </is>
@@ -857,35 +821,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.05220</t>
-        </is>
+      <c r="G9" t="n">
+        <v>0.02183796087730039</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.07014295014064936</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1" t="n">
+        <v>0.05322064060800624</v>
+      </c>
+      <c r="I9" s="1" t="n">
         <v>2058.016084188472</v>
       </c>
+      <c r="J9" t="n">
+        <v>4.323458767013611</v>
+      </c>
       <c r="K9" t="n">
-        <v>4.323458767013611</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" t="n">
         <v>739</v>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>{'High': 22, 'Immediate': 3, 'Low': 3, 'Normal': 707, 'Urgent': 4}</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
-        <is>
-          <t>{'High': 22, 'Immediate': 3, 'Low': 3, 'Normal': 707, 'Urgent': 4}</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
         <is>
           <t>{'blocker': 13, 'critical': 29, 'enhancement': 46, 'major': 57, 'minor': 49, 'normal': 527, 'trivial': 18}</t>
         </is>
@@ -920,35 +879,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.05213</t>
-        </is>
+      <c r="G10" t="n">
+        <v>0.02892064176442758</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04659089504731947</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="n">
+        <v>0.07469810213299782</v>
+      </c>
+      <c r="I10" s="1" t="n">
         <v>2591.494963831019</v>
       </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
         <v>8</v>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>{'High': 1, 'Normal': 7}</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
-        <is>
-          <t>{'High': 1, 'Normal': 7}</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
         <is>
           <t>{'critical': 1, 'major': 1, 'minor': 1, 'normal': 5}</t>
         </is>
@@ -983,35 +937,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.05181</t>
-        </is>
+      <c r="G11" t="n">
+        <v>0.02509081259190896</v>
       </c>
       <c r="H11" t="n">
-        <v>2.13457274605592e-05</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="n">
+        <v>0.04081521696988399</v>
+      </c>
+      <c r="I11" s="1" t="n">
         <v>2536.032383597882</v>
       </c>
+      <c r="J11" t="n">
+        <v>2.352941176470588</v>
+      </c>
       <c r="K11" t="n">
-        <v>2.352941176470588</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M11" t="n">
         <v>35</v>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>{'Normal': 35}</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
-        <is>
-          <t>{'Normal': 35}</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
         <is>
           <t>{'blocker': 1, 'critical': 2, 'enhancement': 8, 'major': 1, 'minor': 1, 'normal': 17, 'trivial': 5}</t>
         </is>
@@ -1046,35 +995,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.05213</t>
-        </is>
+      <c r="G12" t="n">
+        <v>0.09054498731129347</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.004782491745721808</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1" t="n">
+        <v>0.02876450206058952</v>
+      </c>
+      <c r="I12" s="1" t="n">
         <v>2582.157680844907</v>
       </c>
+      <c r="J12" t="n">
+        <v>1.092896174863388</v>
+      </c>
       <c r="K12" t="n">
-        <v>1.092896174863388</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" t="n">
         <v>32</v>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>{'High': 5, 'Immediate': 1, 'Normal': 26}</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
-        <is>
-          <t>{'High': 5, 'Immediate': 1, 'Normal': 26}</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
         <is>
           <t>{'critical': 6, 'major': 10, 'minor': 2, 'normal': 14}</t>
         </is>
@@ -1109,35 +1053,30 @@
           <t>0.05569</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.03609</t>
-        </is>
+      <c r="G13" t="n">
+        <v>0.005076123045295881</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0003898569668378262</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="n">
+        <v>0.0003996940057016847</v>
+      </c>
+      <c r="I13" s="1" t="n">
         <v>2924.815326116563</v>
       </c>
+      <c r="J13" t="n">
+        <v>3.703703703703703</v>
+      </c>
       <c r="K13" t="n">
-        <v>3.703703703703703</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
-      </c>
-      <c r="M13" t="n">
         <v>34</v>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>{'High': 4, 'Normal': 30}</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
-        <is>
-          <t>{'High': 4, 'Normal': 30}</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
         <is>
           <t>{'blocker': 10, 'critical': 2, 'enhancement': 2, 'major': 5, 'minor': 3, 'normal': 9, 'trivial': 3}</t>
         </is>
@@ -1172,35 +1111,30 @@
           <t>0.05561</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.05213</t>
-        </is>
+      <c r="G14" t="n">
+        <v>0.007042075688560868</v>
       </c>
       <c r="H14" t="n">
-        <v>1.912865898218486e-05</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="n">
+        <v>0.006101691775683045</v>
+      </c>
+      <c r="I14" s="1" t="n">
         <v>2794.858468364202</v>
       </c>
+      <c r="J14" t="n">
+        <v>1.333333333333333</v>
+      </c>
       <c r="K14" t="n">
-        <v>1.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
-      </c>
-      <c r="M14" t="n">
         <v>12</v>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>{'High': 3, 'Normal': 8, 'Urgent': 1}</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
-        <is>
-          <t>{'High': 3, 'Normal': 8, 'Urgent': 1}</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
         <is>
           <t>{'blocker': 1, 'critical': 2, 'enhancement': 1, 'major': 2, 'minor': 1, 'normal': 4, 'trivial': 1}</t>
         </is>
@@ -1235,35 +1169,30 @@
           <t>0.05619</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.05213</t>
-        </is>
+      <c r="G15" t="n">
+        <v>0.02114702169960896</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.1720008474616837</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="n">
+        <v>0.01840985139830965</v>
+      </c>
+      <c r="I15" s="1" t="n">
         <v>2585.658395061724</v>
       </c>
+      <c r="J15" t="n">
+        <v>1.82370820668693</v>
+      </c>
       <c r="K15" t="n">
-        <v>1.82370820668693</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
-        <v>10</v>
-      </c>
-      <c r="M15" t="n">
         <v>48</v>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>{'High': 6, 'Normal': 37, 'Urgent': 5}</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
-        <is>
-          <t>{'High': 6, 'Normal': 37, 'Urgent': 5}</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
         <is>
           <t>{'blocker': 1, 'critical': 6, 'enhancement': 2, 'major': 9, 'minor': 3, 'normal': 27}</t>
         </is>
@@ -1298,35 +1227,30 @@
           <t>0.05605</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.05213</t>
-        </is>
+      <c r="G16" t="n">
+        <v>0.01794150695155006</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000646825990607193</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="n">
+        <v>0.02627598639636882</v>
+      </c>
+      <c r="I16" s="1" t="n">
         <v>2503.457807539688</v>
       </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
-      </c>
-      <c r="M16" t="n">
         <v>7</v>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>{'Normal': 5, 'Urgent': 2}</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
-        <is>
-          <t>{'Normal': 5, 'Urgent': 2}</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
         <is>
           <t>{'critical': 2, 'major': 1, 'minor': 1, 'normal': 3}</t>
         </is>
@@ -1361,35 +1285,30 @@
           <t>0.00358</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.01546</t>
-        </is>
+      <c r="G17" t="n">
+        <v>0.01049603101594558</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.314918951565221e-05</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="n">
+        <v>0.03138704492575665</v>
+      </c>
+      <c r="I17" s="1" t="n">
         <v>2609.178061342593</v>
       </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
         <v>2</v>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
         <is>
           <t>{'normal': 2}</t>
         </is>
@@ -1424,35 +1343,30 @@
           <t>0.00506</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.05181</t>
-        </is>
+      <c r="G18" t="n">
+        <v>0.002411890785268577</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0274217318119677</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="n">
+        <v>0.05103737137268202</v>
+      </c>
+      <c r="I18" s="1" t="n">
         <v>2385.973026620371</v>
       </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
-      </c>
-      <c r="M18" t="n">
         <v>6</v>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>{'Normal': 6}</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
-        <is>
-          <t>{'Normal': 6}</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
         <is>
           <t>{'normal': 6}</t>
         </is>
@@ -1487,35 +1401,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.05090</t>
-        </is>
+      <c r="G19" t="n">
+        <v>0.03228065905594998</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.901316524543788e-05</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1" t="n">
+        <v>0.0566532020850737</v>
+      </c>
+      <c r="I19" s="1" t="n">
         <v>2666.701831018519</v>
       </c>
+      <c r="J19" t="n">
+        <v>5.714285714285714</v>
+      </c>
       <c r="K19" t="n">
-        <v>5.714285714285714</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
-      </c>
-      <c r="M19" t="n">
         <v>20</v>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>{'High': 14, 'Normal': 5, 'Urgent': 1}</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
-        <is>
-          <t>{'High': 14, 'Normal': 5, 'Urgent': 1}</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
         <is>
           <t>{'critical': 4, 'major': 10, 'normal': 6}</t>
         </is>
@@ -1550,35 +1459,30 @@
           <t>0.05564</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.05216</t>
-        </is>
+      <c r="G20" t="n">
+        <v>0.05942497471957651</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.01830736990869126</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1" t="n">
+        <v>0.01984112892244713</v>
+      </c>
+      <c r="I20" s="1" t="n">
         <v>2177.102169117651</v>
       </c>
+      <c r="J20" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="K20" t="n">
-        <v>6.666666666666667</v>
+        <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>11</v>
-      </c>
-      <c r="M20" t="n">
         <v>17</v>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>{'High': 3, 'Normal': 13, 'Urgent': 1}</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
-        <is>
-          <t>{'High': 3, 'Normal': 13, 'Urgent': 1}</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
         <is>
           <t>{'critical': 2, 'enhancement': 2, 'major': 2, 'normal': 11}</t>
         </is>
@@ -1613,35 +1517,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.05185</t>
-        </is>
+      <c r="G21" t="n">
+        <v>0.03711533726401196</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.05528486937188217</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1" t="n">
+        <v>2.460485786308862e-06</v>
+      </c>
+      <c r="I21" s="1" t="n">
         <v>2524.543497685185</v>
       </c>
+      <c r="J21" t="n">
+        <v>6.896551724137931</v>
+      </c>
       <c r="K21" t="n">
-        <v>6.896551724137931</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M21" t="n">
         <v>5</v>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>{'Low': 1, 'Normal': 4}</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
-        <is>
-          <t>{'Low': 1, 'Normal': 4}</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
         <is>
           <t>{'minor': 1, 'normal': 4}</t>
         </is>
@@ -1676,35 +1575,30 @@
           <t>0.05491</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.04144</t>
-        </is>
+      <c r="G22" t="n">
+        <v>0.05598452120399013</v>
       </c>
       <c r="H22" t="n">
-        <v>2.427176941864052e-05</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1" t="n">
+        <v>0.001849354584112568</v>
+      </c>
+      <c r="I22" s="1" t="n">
         <v>2556.007212577164</v>
       </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
         <v>6</v>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>{'High': 1, 'Normal': 4, 'Urgent': 1}</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
-        <is>
-          <t>{'High': 1, 'Normal': 4, 'Urgent': 1}</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
         <is>
           <t>{'major': 1, 'normal': 5}</t>
         </is>
@@ -1739,35 +1633,30 @@
           <t>0.05521</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.05181</t>
-        </is>
+      <c r="G23" t="n">
+        <v>0.001681749142094501</v>
       </c>
       <c r="H23" t="n">
-        <v>3.771554741308824e-05</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1" t="n">
+        <v>0.001043672556031369</v>
+      </c>
+      <c r="I23" s="1" t="n">
         <v>2221.483919753091</v>
       </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
-      </c>
-      <c r="M23" t="n">
         <v>3</v>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>{'Normal': 3}</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
-        <is>
-          <t>{'Normal': 3}</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
         <is>
           <t>{'normal': 2, 'trivial': 1}</t>
         </is>
@@ -1802,35 +1691,30 @@
           <t>0.00358</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.02975</t>
-        </is>
+      <c r="G24" t="n">
+        <v>0.0318262062801998</v>
       </c>
       <c r="H24" t="n">
-        <v>7.062915359155977e-06</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1" t="n">
+        <v>0.008119004796743103</v>
+      </c>
+      <c r="I24" s="1" t="n">
         <v>2624.645416666667</v>
       </c>
+      <c r="J24" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="K24" t="n">
-        <v>6.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
         <v>2</v>
       </c>
-      <c r="M24" t="n">
-        <v>2</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
       </c>
       <c r="N24" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
         <is>
           <t>{'normal': 2}</t>
         </is>
@@ -1865,35 +1749,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.04256</t>
-        </is>
+      <c r="G25" t="n">
+        <v>0.005810065658066155</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0002691152340341888</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="n">
+        <v>0.001353698625309947</v>
+      </c>
+      <c r="I25" s="1" t="n">
         <v>2599.303342978391</v>
       </c>
+      <c r="J25" t="n">
+        <v>7.84313725490196</v>
+      </c>
       <c r="K25" t="n">
-        <v>7.84313725490196</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
-      </c>
-      <c r="M25" t="n">
         <v>6</v>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>{'High': 2, 'Normal': 4}</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
-        <is>
-          <t>{'High': 2, 'Normal': 4}</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
         <is>
           <t>{'critical': 2, 'major': 1, 'normal': 3}</t>
         </is>
@@ -1928,35 +1807,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.03985</t>
-        </is>
+      <c r="G26" t="n">
+        <v>0.01040463288064402</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.909464008297658e-06</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="n">
+        <v>0.02149312388269924</v>
+      </c>
+      <c r="I26" s="1" t="n">
         <v>2552.140543981482</v>
       </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="n">
         <v>2</v>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
         <is>
           <t>{'normal': 2}</t>
         </is>
@@ -1991,35 +1865,30 @@
           <t>0.00359</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.04256</t>
-        </is>
+      <c r="G27" t="n">
+        <v>0.02367730629342758</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.001116690552717476</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="n">
+        <v>0.03713390836639532</v>
+      </c>
+      <c r="I27" s="1" t="n">
         <v>2594.605231481481</v>
       </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N27" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -2054,35 +1923,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.03648</t>
-        </is>
+      <c r="G28" t="n">
+        <v>0.006746537167046547</v>
       </c>
       <c r="H28" t="n">
-        <v>2.998533688606528e-05</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="n">
+        <v>0.01872920041759193</v>
+      </c>
+      <c r="I28" s="1" t="n">
         <v>2627.970055433727</v>
       </c>
+      <c r="J28" t="n">
+        <v>8.053691275167784</v>
+      </c>
       <c r="K28" t="n">
-        <v>8.053691275167784</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
-      </c>
-      <c r="M28" t="n">
         <v>19</v>
       </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>{'High': 10, 'Normal': 8, 'Urgent': 1}</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
-        <is>
-          <t>{'High': 10, 'Normal': 8, 'Urgent': 1}</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
         <is>
           <t>{'critical': 5, 'major': 7, 'normal': 7}</t>
         </is>
@@ -2117,35 +1981,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.03250</t>
-        </is>
+      <c r="G29" t="n">
+        <v>0.03418318280329279</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.0001427984069578805</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1" t="n">
+        <v>0.0254672434855364</v>
+      </c>
+      <c r="I29" s="1" t="n">
         <v>2584.473900462963</v>
       </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>{'High': 1}</t>
+        </is>
       </c>
       <c r="N29" t="inlineStr">
-        <is>
-          <t>{'High': 1}</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -2180,35 +2039,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.04393</t>
-        </is>
+      <c r="G30" t="n">
+        <v>0.07508233193721313</v>
       </c>
       <c r="H30" t="n">
-        <v>4.102059200681325e-07</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1" t="n">
+        <v>0.06334426030555167</v>
+      </c>
+      <c r="I30" s="1" t="n">
         <v>2640.071487268518</v>
       </c>
+      <c r="J30" t="n">
+        <v>10.52631578947368</v>
+      </c>
       <c r="K30" t="n">
-        <v>10.52631578947368</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
         <v>2</v>
       </c>
-      <c r="M30" t="n">
-        <v>2</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>{'High': 2}</t>
+        </is>
       </c>
       <c r="N30" t="inlineStr">
-        <is>
-          <t>{'High': 2}</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
         <is>
           <t>{'critical': 1, 'major': 1}</t>
         </is>
@@ -2243,35 +2097,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.05215</t>
-        </is>
+      <c r="G31" t="n">
+        <v>0.0160528490576435</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02886486632043549</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1" t="n">
+        <v>0.03588726999022328</v>
+      </c>
+      <c r="I31" s="1" t="n">
         <v>2626.05515625</v>
       </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
         <v>2</v>
       </c>
-      <c r="M31" t="n">
-        <v>2</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>{'High': 2}</t>
+        </is>
       </c>
       <c r="N31" t="inlineStr">
-        <is>
-          <t>{'High': 2}</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
         <is>
           <t>{'critical': 1, 'major': 1}</t>
         </is>
@@ -2306,35 +2155,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.04270</t>
-        </is>
+      <c r="G32" t="n">
+        <v>0.02086197741748643</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0009073735030333222</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1" t="n">
+        <v>0.2201183155645454</v>
+      </c>
+      <c r="I32" s="1" t="n">
         <v>2661.013032407408</v>
       </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="n">
         <v>4</v>
       </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>{'Normal': 4}</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
-        <is>
-          <t>{'Normal': 4}</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
         <is>
           <t>{'blocker': 1, 'enhancement': 1, 'normal': 2}</t>
         </is>
@@ -2369,35 +2213,30 @@
           <t>0.05569</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.03257</t>
-        </is>
+      <c r="G33" t="n">
+        <v>0.01697916836852612</v>
       </c>
       <c r="H33" t="n">
-        <v>-5.19955882991253e-07</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1" t="n">
+        <v>0.007022924398901231</v>
+      </c>
+      <c r="I33" s="1" t="n">
         <v>2578.245983796297</v>
       </c>
+      <c r="J33" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="K33" t="n">
-        <v>11.11111111111111</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>{'High': 1}</t>
+        </is>
       </c>
       <c r="N33" t="inlineStr">
-        <is>
-          <t>{'High': 1}</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
         <is>
           <t>{'major': 1}</t>
         </is>
@@ -2432,35 +2271,30 @@
           <t>0.05491</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.05020</t>
-        </is>
+      <c r="G34" t="n">
+        <v>0.01495346298631502</v>
       </c>
       <c r="H34" t="n">
-        <v>0.05712004626185075</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1" t="n">
+        <v>0.03954386457259102</v>
+      </c>
+      <c r="I34" s="1" t="n">
         <v>2559.186377314815</v>
       </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N34" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
         <is>
           <t>{'major': 1}</t>
         </is>
@@ -2495,35 +2329,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.03961</t>
-        </is>
+      <c r="G35" t="n">
+        <v>0.01358091041955354</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0002355881586226679</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1" t="n">
+        <v>0.029285076701641</v>
+      </c>
+      <c r="I35" s="1" t="n">
         <v>2560.873876886146</v>
       </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
-      </c>
-      <c r="M35" t="n">
         <v>27</v>
       </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>{'High': 1, 'Immediate': 2, 'Low': 7, 'Normal': 16, 'Urgent': 1}</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
-        <is>
-          <t>{'High': 1, 'Immediate': 2, 'Low': 7, 'Normal': 16, 'Urgent': 1}</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
         <is>
           <t>{'enhancement': 3, 'major': 5, 'minor': 2, 'normal': 9, 'trivial': 8}</t>
         </is>
@@ -2558,35 +2387,30 @@
           <t>0.05526</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.05213</t>
-        </is>
+      <c r="G36" t="n">
+        <v>0.001220844874804906</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.07369445272896924</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1" t="n">
+        <v>0.06315440187011198</v>
+      </c>
+      <c r="I36" s="1" t="n">
         <v>2812.294579475313</v>
       </c>
+      <c r="J36" t="n">
+        <v>2.73972602739726</v>
+      </c>
       <c r="K36" t="n">
-        <v>2.73972602739726</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
-      </c>
-      <c r="M36" t="n">
         <v>9</v>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>{'High': 1, 'Normal': 8}</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr">
-        <is>
-          <t>{'High': 1, 'Normal': 8}</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
         <is>
           <t>{'blocker': 3, 'critical': 1, 'major': 2, 'normal': 2, 'trivial': 1}</t>
         </is>
@@ -2621,35 +2445,30 @@
           <t>0.05528</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.05198</t>
-        </is>
+      <c r="G37" t="n">
+        <v>0.006054145483129752</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0661975355280961</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1" t="n">
+        <v>0.03064213021372179</v>
+      </c>
+      <c r="I37" s="1" t="n">
         <v>2501.533206018519</v>
       </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N37" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
         <is>
           <t>{'enhancement': 1}</t>
         </is>
@@ -2684,35 +2503,30 @@
           <t>0.00029</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.01524</t>
-        </is>
+      <c r="G38" t="n">
+        <v>0.0111263813908104</v>
       </c>
       <c r="H38" t="n">
-        <v>-7.909409579344941e-05</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1" t="n">
+        <v>0.02624396085549843</v>
+      </c>
+      <c r="I38" s="1" t="n">
         <v>2558.934965277778</v>
       </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N38" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -2747,35 +2561,30 @@
           <t>0.05569</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.03284</t>
-        </is>
+      <c r="G39" t="n">
+        <v>0.06346647269847781</v>
       </c>
       <c r="H39" t="n">
-        <v>2.081447337778307e-05</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1" t="n">
+        <v>0.01668375986138965</v>
+      </c>
+      <c r="I39" s="1" t="n">
         <v>2558.892291666667</v>
       </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>{'High': 1}</t>
+        </is>
       </c>
       <c r="N39" t="inlineStr">
-        <is>
-          <t>{'High': 1}</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
         <is>
           <t>{'critical': 1}</t>
         </is>
@@ -2810,35 +2619,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.03961</t>
-        </is>
+      <c r="G40" t="n">
+        <v>0.01153605871981216</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00011545984596951</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1" t="n">
+        <v>0.0231059918174576</v>
+      </c>
+      <c r="I40" s="1" t="n">
         <v>2194.12155787037</v>
       </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
-      </c>
-      <c r="M40" t="n">
         <v>5</v>
       </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>{'Normal': 5}</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr">
-        <is>
-          <t>{'Normal': 5}</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
         <is>
           <t>{'normal': 5}</t>
         </is>
@@ -2873,35 +2677,30 @@
           <t>0.05642</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.05219</t>
-        </is>
+      <c r="G41" t="n">
+        <v>0.0180675511184889</v>
       </c>
       <c r="H41" t="n">
-        <v>-5.381655588723643e-08</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1" t="n">
+        <v>0.01472157818890011</v>
+      </c>
+      <c r="I41" s="1" t="n">
         <v>2107.697303240741</v>
       </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
-      </c>
-      <c r="M41" t="n">
         <v>12</v>
       </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>{'Low': 1, 'Normal': 11}</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
-        <is>
-          <t>{'Low': 1, 'Normal': 11}</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
         <is>
           <t>{'enhancement': 1, 'minor': 2, 'normal': 8, 'trivial': 1}</t>
         </is>
@@ -2936,35 +2735,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.05181</t>
-        </is>
+      <c r="G42" t="n">
+        <v>3.049150356854938e-05</v>
       </c>
       <c r="H42" t="n">
-        <v>-6.322806434558779e-06</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1" t="n">
+        <v>0.005867926581997255</v>
+      </c>
+      <c r="I42" s="1" t="n">
         <v>2476.6566875</v>
       </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
-      </c>
-      <c r="M42" t="n">
         <v>5</v>
       </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>{'High': 2, 'Normal': 2, 'Urgent': 1}</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
-        <is>
-          <t>{'High': 2, 'Normal': 2, 'Urgent': 1}</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
         <is>
           <t>{'blocker': 1, 'enhancement': 1, 'major': 2, 'normal': 1}</t>
         </is>
@@ -2999,35 +2793,30 @@
           <t>0.00104</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.01059</t>
-        </is>
+      <c r="G43" t="n">
+        <v>0.03998647186703969</v>
       </c>
       <c r="H43" t="n">
-        <v>5.375670629671272e-05</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="1" t="n">
+        <v>0.01855023765653982</v>
+      </c>
+      <c r="I43" s="1" t="n">
         <v>2546.126979166667</v>
       </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>{'High': 1}</t>
+        </is>
       </c>
       <c r="N43" t="inlineStr">
-        <is>
-          <t>{'High': 1}</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
         <is>
           <t>{'major': 1}</t>
         </is>
@@ -3062,35 +2851,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.01059</t>
-        </is>
+      <c r="G44" t="n">
+        <v>0.03097968845518427</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.02092983172243608</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1" t="n">
+        <v>0.005268028224793583</v>
+      </c>
+      <c r="I44" s="1" t="n">
         <v>2649.398063271609</v>
       </c>
+      <c r="J44" t="n">
+        <v>3.703703703703703</v>
+      </c>
       <c r="K44" t="n">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="n">
         <v>9</v>
       </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>{'High': 2, 'Normal': 7}</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
-        <is>
-          <t>{'High': 2, 'Normal': 7}</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
         <is>
           <t>{'critical': 1, 'major': 4, 'normal': 4}</t>
         </is>
@@ -3125,35 +2909,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.05170</t>
-        </is>
+      <c r="G45" t="n">
+        <v>0.07674387848149365</v>
       </c>
       <c r="H45" t="n">
-        <v>1.115362679843412e-06</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1" t="n">
+        <v>0.01593101999622913</v>
+      </c>
+      <c r="I45" s="1" t="n">
         <v>2493.353981481482</v>
       </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N45" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -3188,35 +2967,30 @@
           <t>0.00051</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.04247</t>
-        </is>
+      <c r="G46" t="n">
+        <v>0.02561971843051073</v>
       </c>
       <c r="H46" t="n">
-        <v>4.750050713551917e-06</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1" t="n">
+        <v>0.03635539402347314</v>
+      </c>
+      <c r="I46" s="1" t="n">
         <v>2533.057777777778</v>
       </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N46" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
         <is>
           <t>{'major': 1}</t>
         </is>
@@ -3251,35 +3025,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.04247</t>
-        </is>
+      <c r="G47" t="n">
+        <v>0.0306342439284158</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0566035623081935</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1" t="n">
+        <v>0.001978542093629347</v>
+      </c>
+      <c r="I47" s="1" t="n">
         <v>2583.023460648148</v>
       </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="n">
         <v>2</v>
       </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>{'High': 1, 'Normal': 1}</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
-        <is>
-          <t>{'High': 1, 'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
         <is>
           <t>{'major': 1, 'normal': 1}</t>
         </is>
@@ -3314,35 +3083,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.03944</t>
-        </is>
+      <c r="G48" t="n">
+        <v>0.03991499008229891</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.0001033452794513006</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1" t="n">
+        <v>0.01444139594456707</v>
+      </c>
+      <c r="I48" s="1" t="n">
         <v>2518.98412037037</v>
       </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>{'High': 1}</t>
+        </is>
       </c>
       <c r="N48" t="inlineStr">
-        <is>
-          <t>{'High': 1}</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
         <is>
           <t>{'minor': 1}</t>
         </is>
@@ -3377,35 +3141,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.04391</t>
-        </is>
+      <c r="G49" t="n">
+        <v>0.005486349599603962</v>
       </c>
       <c r="H49" t="n">
-        <v>4.362327254904339e-05</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="1" t="n">
+        <v>0.02155700444052681</v>
+      </c>
+      <c r="I49" s="1" t="n">
         <v>2537.64494598765</v>
       </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
-      </c>
-      <c r="M49" t="n">
         <v>3</v>
       </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>{'High': 1, 'Normal': 1, 'Urgent': 1}</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
-        <is>
-          <t>{'High': 1, 'Normal': 1, 'Urgent': 1}</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
         <is>
           <t>{'blocker': 1, 'enhancement': 1, 'normal': 1}</t>
         </is>
@@ -3440,35 +3199,30 @@
           <t>0.00341</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.03953</t>
-        </is>
+      <c r="G50" t="n">
+        <v>0.0005781222354833242</v>
       </c>
       <c r="H50" t="n">
-        <v>0.07495552542540691</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="1" t="n">
+        <v>0.1317163245776621</v>
+      </c>
+      <c r="I50" s="1" t="n">
         <v>2482.074872685185</v>
       </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N50" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -3503,35 +3257,30 @@
           <t>0.00660</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.05181</t>
-        </is>
+      <c r="G51" t="n">
+        <v>0.03697733587705113</v>
       </c>
       <c r="H51" t="n">
-        <v>7.548659718886493e-05</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1" t="n">
+        <v>0.0132440522595591</v>
+      </c>
+      <c r="I51" s="1" t="n">
         <v>2473.658032407408</v>
       </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N51" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -3566,35 +3315,30 @@
           <t>0.00660</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.03034</t>
-        </is>
+      <c r="G52" t="n">
+        <v>0.02790949167975767</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.007320363951297823</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" s="1" t="n">
+        <v>0.01113093625763158</v>
+      </c>
+      <c r="I52" s="1" t="n">
         <v>2455.289548611111</v>
       </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N52" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -3629,35 +3373,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.05181</t>
-        </is>
+      <c r="G53" t="n">
+        <v>0.04929709883105549</v>
       </c>
       <c r="H53" t="n">
-        <v>-5.851268385828961e-07</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1" t="n">
+        <v>0.03492992262713543</v>
+      </c>
+      <c r="I53" s="1" t="n">
         <v>2382.811145833333</v>
       </c>
+      <c r="J53" t="n">
+        <v>11.76470588235294</v>
+      </c>
       <c r="K53" t="n">
-        <v>11.76470588235294</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="n">
         <v>2</v>
       </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
         <is>
           <t>{'enhancement': 1, 'normal': 1}</t>
         </is>
@@ -3692,35 +3431,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G54" t="n">
+        <v>0.02884484434923788</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.000632795367986052</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" s="1" t="n">
+        <v>0.01755306689084447</v>
+      </c>
+      <c r="I54" s="1" t="n">
         <v>2334.464334490741</v>
       </c>
+      <c r="J54" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="K54" t="n">
-        <v>33.33333333333333</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="n">
         <v>2</v>
       </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
         <is>
           <t>{'normal': 2}</t>
         </is>
@@ -3755,35 +3489,30 @@
           <t>0.05561</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.05088</t>
-        </is>
+      <c r="G55" t="n">
+        <v>0.01665433585266277</v>
       </c>
       <c r="H55" t="n">
-        <v>1.091752847163894e-05</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="1" t="n">
+        <v>0.004149668402529767</v>
+      </c>
+      <c r="I55" s="1" t="n">
         <v>2213.106099537037</v>
       </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L55" t="n">
         <v>2</v>
       </c>
-      <c r="M55" t="n">
-        <v>2</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>{'High': 1, 'Normal': 1}</t>
+        </is>
       </c>
       <c r="N55" t="inlineStr">
-        <is>
-          <t>{'High': 1, 'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
         <is>
           <t>{'critical': 1, 'normal': 1}</t>
         </is>
@@ -3818,35 +3547,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G56" t="n">
+        <v>0.09388009300419899</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.741011023242384e-06</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1" t="n">
+        <v>0.003482864596675501</v>
+      </c>
+      <c r="I56" s="1" t="n">
         <v>2295.981782407408</v>
       </c>
+      <c r="J56" t="n">
+        <v>7.692307692307693</v>
+      </c>
       <c r="K56" t="n">
-        <v>7.692307692307693</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="n">
         <v>3</v>
       </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>{'Low': 3}</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
-        <is>
-          <t>{'Low': 3}</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
         <is>
           <t>{'trivial': 3}</t>
         </is>
@@ -3881,35 +3605,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.05219</t>
-        </is>
+      <c r="G57" t="n">
+        <v>0.03444786249530629</v>
       </c>
       <c r="H57" t="n">
-        <v>-5.064295404319593e-16</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" s="1" t="n">
+        <v>0.02628342024392743</v>
+      </c>
+      <c r="I57" s="1" t="n">
         <v>2071.600849476123</v>
       </c>
+      <c r="J57" t="n">
+        <v>9.45945945945946</v>
+      </c>
       <c r="K57" t="n">
-        <v>9.45945945945946</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
-      </c>
-      <c r="M57" t="n">
         <v>38</v>
       </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>{'Normal': 38}</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
-        <is>
-          <t>{'Normal': 38}</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
         <is>
           <t>{'enhancement': 2, 'major': 2, 'minor': 2, 'normal': 32}</t>
         </is>
@@ -3944,35 +3663,30 @@
           <t>0.05611</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.05213</t>
-        </is>
+      <c r="G58" t="n">
+        <v>0.03162901106792158</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.003121251789510233</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" s="1" t="n">
+        <v>0.02641495046329257</v>
+      </c>
+      <c r="I58" s="1" t="n">
         <v>2274.528443287037</v>
       </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L58" t="n">
         <v>2</v>
       </c>
-      <c r="M58" t="n">
-        <v>2</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>{'Low': 1, 'Normal': 1}</t>
+        </is>
       </c>
       <c r="N58" t="inlineStr">
-        <is>
-          <t>{'Low': 1, 'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
         <is>
           <t>{'critical': 1, 'enhancement': 1}</t>
         </is>
@@ -4007,35 +3721,30 @@
           <t>0.05491</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.05037</t>
-        </is>
+      <c r="G59" t="n">
+        <v>0.01082312737000518</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.000302190773332052</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" s="1" t="n">
+        <v>0.006275606632473529</v>
+      </c>
+      <c r="I59" s="1" t="n">
         <v>2321.035347222222</v>
       </c>
+      <c r="J59" t="n">
+        <v>16.66666666666666</v>
+      </c>
       <c r="K59" t="n">
-        <v>16.66666666666666</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N59" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
         <is>
           <t>{'minor': 1}</t>
         </is>
@@ -4070,35 +3779,30 @@
           <t>0.05565</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.05181</t>
-        </is>
+      <c r="G60" t="n">
+        <v>0.04405909269803286</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.06961453219079955</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" s="1" t="n">
+        <v>0.005647759200033996</v>
+      </c>
+      <c r="I60" s="1" t="n">
         <v>2665.183809156377</v>
       </c>
+      <c r="J60" t="n">
+        <v>11.96581196581197</v>
+      </c>
       <c r="K60" t="n">
-        <v>11.96581196581197</v>
+        <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
-      </c>
-      <c r="M60" t="n">
         <v>9</v>
       </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>{'Low': 1, 'Normal': 8}</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr">
-        <is>
-          <t>{'Low': 1, 'Normal': 8}</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
         <is>
           <t>{'blocker': 3, 'critical': 1, 'enhancement': 1, 'major': 1, 'minor': 1, 'normal': 1, 'trivial': 1}</t>
         </is>
@@ -4133,35 +3837,30 @@
           <t>0.00276</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.02947</t>
-        </is>
+      <c r="G61" t="n">
+        <v>0.01982117027195338</v>
       </c>
       <c r="H61" t="n">
-        <v>-1.295076284121165e-07</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" s="1" t="n">
+        <v>0.008423108452237031</v>
+      </c>
+      <c r="I61" s="1" t="n">
         <v>2257.321458333333</v>
       </c>
+      <c r="J61" t="n">
+        <v>25</v>
+      </c>
       <c r="K61" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N61" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
         <is>
           <t>{'blocker': 1}</t>
         </is>
@@ -4196,35 +3895,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.05181</t>
-        </is>
+      <c r="G62" t="n">
+        <v>0.03943070759736898</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.03326605979685554</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" s="1" t="n">
+        <v>0.02963753268376382</v>
+      </c>
+      <c r="I62" s="1" t="n">
         <v>2165.536038262523</v>
       </c>
+      <c r="J62" t="n">
+        <v>4.081632653061225</v>
+      </c>
       <c r="K62" t="n">
-        <v>4.081632653061225</v>
+        <v>5</v>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
-      </c>
-      <c r="M62" t="n">
         <v>17</v>
       </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>{'High': 2, 'Normal': 15}</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr">
-        <is>
-          <t>{'High': 2, 'Normal': 15}</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
         <is>
           <t>{'critical': 1, 'enhancement': 2, 'major': 3, 'minor': 1, 'normal': 10}</t>
         </is>
@@ -4259,35 +3953,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G63" t="n">
+        <v>0.01447099147814163</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.04595648050653092</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" s="1" t="n">
+        <v>0.01685236072740268</v>
+      </c>
+      <c r="I63" s="1" t="n">
         <v>2212.18337962963</v>
       </c>
+      <c r="J63" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="K63" t="n">
-        <v>14.28571428571428</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="n">
         <v>2</v>
       </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
         <is>
           <t>{'major': 2}</t>
         </is>
@@ -4322,35 +4011,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.03961</t>
-        </is>
+      <c r="G64" t="n">
+        <v>0.01126170551497838</v>
       </c>
       <c r="H64" t="n">
-        <v>3.945966850532425e-05</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1" t="n">
+        <v>0.01833317514283614</v>
+      </c>
+      <c r="I64" s="1" t="n">
         <v>1974.578744212963</v>
       </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="n">
         <v>2</v>
       </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
         <is>
           <t>{'major': 1, 'normal': 1}</t>
         </is>
@@ -4385,35 +4069,30 @@
           <t>0.05491</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.03953</t>
-        </is>
+      <c r="G65" t="n">
+        <v>0.009429965146075468</v>
       </c>
       <c r="H65" t="n">
-        <v>0.03153665516554589</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" s="1" t="n">
+        <v>0.00914417137500746</v>
+      </c>
+      <c r="I65" s="1" t="n">
         <v>2106.212615740741</v>
       </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N65" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -4448,35 +4127,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.05217</t>
-        </is>
+      <c r="G66" t="n">
+        <v>0.002770204223207365</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.0008996807584026335</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" s="1" t="n">
+        <v>0.01307691825867774</v>
+      </c>
+      <c r="I66" s="1" t="n">
         <v>1752.738901851852</v>
       </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
-      </c>
-      <c r="M66" t="n">
         <v>25</v>
       </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>{'High': 4, 'Low': 1, 'Normal': 20}</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr">
-        <is>
-          <t>{'High': 4, 'Low': 1, 'Normal': 20}</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
         <is>
           <t>{'blocker': 1, 'critical': 2, 'major': 3, 'minor': 1, 'normal': 18}</t>
         </is>
@@ -4511,35 +4185,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.05185</t>
-        </is>
+      <c r="G67" t="n">
+        <v>0.01407395906249883</v>
       </c>
       <c r="H67" t="n">
-        <v>0.01520050680196211</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" s="1" t="n">
+        <v>0.04016037083783661</v>
+      </c>
+      <c r="I67" s="1" t="n">
         <v>2076.433020833334</v>
       </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="n">
         <v>2</v>
       </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
         <is>
           <t>{'normal': 2}</t>
         </is>
@@ -4574,35 +4243,30 @@
           <t>0.00340</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.03961</t>
-        </is>
+      <c r="G68" t="n">
+        <v>0.115402506612404</v>
       </c>
       <c r="H68" t="n">
-        <v>4.394710185991727e-05</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" s="1" t="n">
+        <v>0.003030698810690941</v>
+      </c>
+      <c r="I68" s="1" t="n">
         <v>1792.932118055556</v>
       </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L68" t="n">
         <v>2</v>
       </c>
-      <c r="M68" t="n">
-        <v>2</v>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
       </c>
       <c r="N68" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
         <is>
           <t>{'normal': 2}</t>
         </is>
@@ -4637,35 +4301,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.03961</t>
-        </is>
+      <c r="G69" t="n">
+        <v>0.0265969693459002</v>
       </c>
       <c r="H69" t="n">
-        <v>-2.339911453421399e-08</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" s="1" t="n">
+        <v>0.004008883142995961</v>
+      </c>
+      <c r="I69" s="1" t="n">
         <v>2017.989730902778</v>
       </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="n">
         <v>4</v>
       </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>{'High': 1, 'Normal': 3}</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr">
-        <is>
-          <t>{'High': 1, 'Normal': 3}</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
         <is>
           <t>{'major': 2, 'normal': 1, 'trivial': 1}</t>
         </is>
@@ -4700,35 +4359,30 @@
           <t>0.00359</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.03961</t>
-        </is>
+      <c r="G70" t="n">
+        <v>0.04312487683032529</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.0181917951845646</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" s="1" t="n">
+        <v>0.01659066943137901</v>
+      </c>
+      <c r="I70" s="1" t="n">
         <v>2106.704429398148</v>
       </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="n">
         <v>10</v>
       </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>{'Normal': 10}</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr">
-        <is>
-          <t>{'Normal': 10}</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
         <is>
           <t>{'enhancement': 2, 'normal': 7, 'trivial': 1}</t>
         </is>
@@ -4763,35 +4417,30 @@
           <t>0.05519</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.03961</t>
-        </is>
+      <c r="G71" t="n">
+        <v>0.1064823842227293</v>
       </c>
       <c r="H71" t="n">
-        <v>-1.110739912689642e-06</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" s="1" t="n">
+        <v>0.02342053820437111</v>
+      </c>
+      <c r="I71" s="1" t="n">
         <v>2008.675358796296</v>
       </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L71" t="n">
         <v>2</v>
       </c>
-      <c r="M71" t="n">
-        <v>2</v>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
       </c>
       <c r="N71" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
         <is>
           <t>{'enhancement': 1, 'normal': 1}</t>
         </is>
@@ -4826,35 +4475,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.05219</t>
-        </is>
+      <c r="G72" t="n">
+        <v>0.003409352620809294</v>
       </c>
       <c r="H72" t="n">
-        <v>4.391850152154269e-06</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" s="1" t="n">
+        <v>0.003721692971394333</v>
+      </c>
+      <c r="I72" s="1" t="n">
         <v>1810.834172453704</v>
       </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="n">
         <v>2</v>
       </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
         <is>
           <t>{'major': 1, 'normal': 1}</t>
         </is>
@@ -4889,35 +4533,30 @@
           <t>0.05441</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.03961</t>
-        </is>
+      <c r="G73" t="n">
+        <v>0.0006480951287537143</v>
       </c>
       <c r="H73" t="n">
-        <v>3.390456898620188e-05</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" s="1" t="n">
+        <v>0.0157887753772624</v>
+      </c>
+      <c r="I73" s="1" t="n">
         <v>2088.867592592593</v>
       </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N73" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -4952,35 +4591,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.05181</t>
-        </is>
+      <c r="G74" t="n">
+        <v>0.01313973396889434</v>
       </c>
       <c r="H74" t="n">
-        <v>1.747190496074818e-10</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" s="1" t="n">
+        <v>0.01149922271080484</v>
+      </c>
+      <c r="I74" s="1" t="n">
         <v>1495.603497857361</v>
       </c>
+      <c r="J74" t="n">
+        <v>1.526717557251908</v>
+      </c>
       <c r="K74" t="n">
-        <v>1.526717557251908</v>
+        <v>4</v>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
-      </c>
-      <c r="M74" t="n">
         <v>121</v>
       </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>{'Low': 14, 'Normal': 107}</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr">
-        <is>
-          <t>{'Low': 14, 'Normal': 107}</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
         <is>
           <t>{'critical': 1, 'enhancement': 21, 'major': 4, 'minor': 22, 'normal': 65, 'trivial': 8}</t>
         </is>
@@ -5015,35 +4649,30 @@
           <t>0.05491</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.05037</t>
-        </is>
+      <c r="G75" t="n">
+        <v>0.01628526901959017</v>
       </c>
       <c r="H75" t="n">
-        <v>7.51828667744339e-06</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" s="1" t="n">
+        <v>0.00808153062362125</v>
+      </c>
+      <c r="I75" s="1" t="n">
         <v>2020.165115740741</v>
       </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N75" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -5078,35 +4707,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.03961</t>
-        </is>
+      <c r="G76" t="n">
+        <v>0.004701674219443043</v>
       </c>
       <c r="H76" t="n">
-        <v>-4.44137535445756e-05</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" s="1" t="n">
+        <v>0.03178605525509609</v>
+      </c>
+      <c r="I76" s="1" t="n">
         <v>1960.749733796296</v>
       </c>
+      <c r="J76" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K76" t="n">
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="n">
         <v>2</v>
       </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
         <is>
           <t>{'major': 2}</t>
         </is>
@@ -5141,35 +4765,30 @@
           <t>0.05511</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.04136</t>
-        </is>
+      <c r="G77" t="n">
+        <v>0.02049471027337463</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.1924325729716976</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" s="1" t="n">
+        <v>0.002857064479790962</v>
+      </c>
+      <c r="I77" s="1" t="n">
         <v>1996.378009259259</v>
       </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N77" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -5204,35 +4823,30 @@
           <t>0.05491</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.03953</t>
-        </is>
+      <c r="G78" t="n">
+        <v>0.004263208879178707</v>
       </c>
       <c r="H78" t="n">
-        <v>0.05294272181328098</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" s="1" t="n">
+        <v>0.0002915272150660412</v>
+      </c>
+      <c r="I78" s="1" t="n">
         <v>1948.839930555556</v>
       </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N78" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -5267,35 +4881,30 @@
           <t>0.05561</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.03961</t>
-        </is>
+      <c r="G79" t="n">
+        <v>0.02864884047615614</v>
       </c>
       <c r="H79" t="n">
-        <v>-9.477954941048338e-05</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" s="1" t="n">
+        <v>0.01634533268442556</v>
+      </c>
+      <c r="I79" s="1" t="n">
         <v>1944.97068287037</v>
       </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N79" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -5330,35 +4939,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>0.05218</t>
-        </is>
+      <c r="G80" t="n">
+        <v>0.0324446339244322</v>
       </c>
       <c r="H80" t="n">
-        <v>1.120394657347229e-06</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" s="1" t="n">
+        <v>0.007677788544955963</v>
+      </c>
+      <c r="I80" s="1" t="n">
         <v>1650.301175595243</v>
       </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="n">
         <v>7</v>
       </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>{'Normal': 7}</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr">
-        <is>
-          <t>{'Normal': 7}</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
         <is>
           <t>{'enhancement': 1, 'major': 1, 'normal': 5}</t>
         </is>
@@ -5393,35 +4997,30 @@
           <t>0.05491</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>0.03953</t>
-        </is>
+      <c r="G81" t="n">
+        <v>0.0002425003906620248</v>
       </c>
       <c r="H81" t="n">
-        <v>-4.673024030818894e-05</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" s="1" t="n">
+        <v>0.04486996073166754</v>
+      </c>
+      <c r="I81" s="1" t="n">
         <v>1758.202534722222</v>
       </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N81" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -5456,35 +5055,30 @@
           <t>0.00360</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>0.05037</t>
-        </is>
+      <c r="G82" t="n">
+        <v>0.005224590019745232</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.009360674606564322</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" s="1" t="n">
+        <v>0.009255404530726041</v>
+      </c>
+      <c r="I82" s="1" t="n">
         <v>1769.401608796296</v>
       </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>{'High': 1}</t>
+        </is>
       </c>
       <c r="N82" t="inlineStr">
-        <is>
-          <t>{'High': 1}</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
         <is>
           <t>{'critical': 1}</t>
         </is>
@@ -5519,35 +5113,30 @@
           <t>0.00360</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>0.05037</t>
-        </is>
+      <c r="G83" t="n">
+        <v>0.0006373631069458915</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.005639716120338009</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" s="1" t="n">
+        <v>0.03609955958696566</v>
+      </c>
+      <c r="I83" s="1" t="n">
         <v>1671.428153935185</v>
       </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L83" t="n">
         <v>2</v>
       </c>
-      <c r="M83" t="n">
-        <v>2</v>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
       </c>
       <c r="N83" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
         <is>
           <t>{'normal': 2}</t>
         </is>
@@ -5582,35 +5171,30 @@
           <t>0.00360</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>0.05037</t>
-        </is>
+      <c r="G84" t="n">
+        <v>0.04748174122398535</v>
       </c>
       <c r="H84" t="n">
-        <v>-1.457168311808589e-06</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" s="1" t="n">
+        <v>0.0008004867699709596</v>
+      </c>
+      <c r="I84" s="1" t="n">
         <v>1473.080869816829</v>
       </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L84" t="n">
-        <v>6</v>
-      </c>
-      <c r="M84" t="n">
         <v>46</v>
       </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>{'High': 9, 'Normal': 36, 'Urgent': 1}</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr">
-        <is>
-          <t>{'High': 9, 'Normal': 36, 'Urgent': 1}</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
         <is>
           <t>{'blocker': 4, 'critical': 11, 'enhancement': 5, 'major': 2, 'minor': 3, 'normal': 19, 'trivial': 2}</t>
         </is>
@@ -5645,35 +5229,30 @@
           <t>0.00358</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>0.02968</t>
-        </is>
+      <c r="G85" t="n">
+        <v>0.009495830926096243</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0001001022156106444</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" s="1" t="n">
+        <v>0.02371090985527124</v>
+      </c>
+      <c r="I85" s="1" t="n">
         <v>1626.824247685185</v>
       </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N85" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -5708,35 +5287,30 @@
           <t>0.05474</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>0.02968</t>
-        </is>
+      <c r="G86" t="n">
+        <v>0.003397012636576044</v>
       </c>
       <c r="H86" t="n">
-        <v>-2.184202175398779e-06</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" s="1" t="n">
+        <v>0.02266924699556397</v>
+      </c>
+      <c r="I86" s="1" t="n">
         <v>1596.967407407407</v>
       </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N86" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -5771,35 +5345,30 @@
           <t>0.00441</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>0.03443</t>
-        </is>
+      <c r="G87" t="n">
+        <v>5.303767397227967e-06</v>
       </c>
       <c r="H87" t="n">
-        <v>-3.074588819838016e-09</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" s="1" t="n">
+        <v>0.006462819949259375</v>
+      </c>
+      <c r="I87" s="1" t="n">
         <v>2880.924438888889</v>
       </c>
+      <c r="J87" t="n">
+        <v>0.9615384615384616</v>
+      </c>
       <c r="K87" t="n">
-        <v>0.9615384615384616</v>
+        <v>5</v>
       </c>
       <c r="L87" t="n">
-        <v>5</v>
-      </c>
-      <c r="M87" t="n">
         <v>25</v>
       </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>{'Normal': 25}</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr">
-        <is>
-          <t>{'Normal': 25}</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
         <is>
           <t>{'blocker': 7, 'critical': 3, 'enhancement': 2, 'major': 4, 'minor': 1, 'normal': 5, 'trivial': 3}</t>
         </is>
@@ -5834,35 +5403,30 @@
           <t>0.00346</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>0.03443</t>
-        </is>
+      <c r="G88" t="n">
+        <v>0.0343402586539145</v>
       </c>
       <c r="H88" t="n">
-        <v>0.02890706443822076</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" s="1" t="n">
+        <v>0.01770755752969408</v>
+      </c>
+      <c r="I88" s="1" t="n">
         <v>2991.714826388889</v>
       </c>
+      <c r="J88" t="n">
+        <v>7.61904761904762</v>
+      </c>
       <c r="K88" t="n">
-        <v>7.61904761904762</v>
+        <v>5</v>
       </c>
       <c r="L88" t="n">
-        <v>5</v>
-      </c>
-      <c r="M88" t="n">
         <v>7</v>
       </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>{'Normal': 7}</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr">
-        <is>
-          <t>{'Normal': 7}</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
         <is>
           <t>{'blocker': 2, 'critical': 2, 'major': 2, 'minor': 1}</t>
         </is>
@@ -5897,35 +5461,30 @@
           <t>0.05564</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>0.03443</t>
-        </is>
+      <c r="G89" t="n">
+        <v>0.03590862377265889</v>
       </c>
       <c r="H89" t="n">
-        <v>1.151486301267706e-05</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" s="1" t="n">
+        <v>0.01107569866504104</v>
+      </c>
+      <c r="I89" s="1" t="n">
         <v>2848.249139660498</v>
       </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L89" t="n">
-        <v>2</v>
-      </c>
-      <c r="M89" t="n">
         <v>3</v>
       </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>{'Normal': 3}</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr">
-        <is>
-          <t>{'Normal': 3}</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
         <is>
           <t>{'critical': 2, 'normal': 1}</t>
         </is>
@@ -5960,35 +5519,30 @@
           <t>0.00385</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>0.03443</t>
-        </is>
+      <c r="G90" t="n">
+        <v>0.001712498102004622</v>
       </c>
       <c r="H90" t="n">
-        <v>-3.510572517979559e-07</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" s="1" t="n">
+        <v>0.0366864706162757</v>
+      </c>
+      <c r="I90" s="1" t="n">
         <v>2917.933051549143</v>
       </c>
+      <c r="J90" t="n">
+        <v>5.179282868525896</v>
+      </c>
       <c r="K90" t="n">
-        <v>5.179282868525896</v>
+        <v>4</v>
       </c>
       <c r="L90" t="n">
-        <v>4</v>
-      </c>
-      <c r="M90" t="n">
         <v>26</v>
       </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>{'Normal': 26}</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr">
-        <is>
-          <t>{'Normal': 26}</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
         <is>
           <t>{'blocker': 10, 'enhancement': 3, 'major': 1, 'minor': 1, 'normal': 9, 'trivial': 2}</t>
         </is>
@@ -6023,35 +5577,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G91" t="n">
+        <v>0.0002875294651772405</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.01865007531318966</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" s="1" t="n">
+        <v>0.0009865205474916131</v>
+      </c>
+      <c r="I91" s="1" t="n">
         <v>3013.856203703704</v>
       </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="n">
         <v>2</v>
       </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
         <is>
           <t>{'enhancement': 1, 'major': 1}</t>
         </is>
@@ -6086,35 +5635,30 @@
           <t>0.00384</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>0.03443</t>
-        </is>
+      <c r="G92" t="n">
+        <v>0.008610926293045293</v>
       </c>
       <c r="H92" t="n">
-        <v>1.260299663881055e-06</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" s="1" t="n">
+        <v>0.01949470973691221</v>
+      </c>
+      <c r="I92" s="1" t="n">
         <v>2663.129241452986</v>
       </c>
+      <c r="J92" t="n">
+        <v>7.741935483870968</v>
+      </c>
       <c r="K92" t="n">
-        <v>7.741935483870968</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="n">
         <v>13</v>
       </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>{'Normal': 13}</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr">
-        <is>
-          <t>{'Normal': 13}</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
         <is>
           <t>{'blocker': 6, 'major': 4, 'minor': 1, 'normal': 1, 'trivial': 1}</t>
         </is>
@@ -6149,35 +5693,30 @@
           <t>0.00073</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>0.02975</t>
-        </is>
+      <c r="G93" t="n">
+        <v>0.001372535565921964</v>
       </c>
       <c r="H93" t="n">
-        <v>1.406615216686042e-06</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" s="1" t="n">
+        <v>0.01735340400858036</v>
+      </c>
+      <c r="I93" s="1" t="n">
         <v>2970.211394675926</v>
       </c>
+      <c r="J93" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="K93" t="n">
-        <v>9.090909090909092</v>
+        <v>2</v>
       </c>
       <c r="L93" t="n">
         <v>2</v>
       </c>
-      <c r="M93" t="n">
-        <v>2</v>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
       </c>
       <c r="N93" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
         <is>
           <t>{'critical': 1, 'normal': 1}</t>
         </is>
@@ -6212,35 +5751,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>0.01531</t>
-        </is>
+      <c r="G94" t="n">
+        <v>0.02406140408376939</v>
       </c>
       <c r="H94" t="n">
-        <v>1.583437841034959e-15</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" s="1" t="n">
+        <v>0.0007944498550478282</v>
+      </c>
+      <c r="I94" s="1" t="n">
         <v>3017.904525462963</v>
       </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N94" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -6275,35 +5809,30 @@
           <t>0.00343</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>0.01546</t>
-        </is>
+      <c r="G95" t="n">
+        <v>0.01377442373612457</v>
       </c>
       <c r="H95" t="n">
-        <v>4.484031514483233e-05</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" s="1" t="n">
+        <v>0.05353670438690846</v>
+      </c>
+      <c r="I95" s="1" t="n">
         <v>3016.888564814815</v>
       </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N95" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
         <is>
           <t>{'enhancement': 1}</t>
         </is>
@@ -6338,35 +5867,30 @@
           <t>0.00158</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>0.03443</t>
-        </is>
+      <c r="G96" t="n">
+        <v>0.002126521333529719</v>
       </c>
       <c r="H96" t="n">
-        <v>-5.267107447410112e-07</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" s="1" t="n">
+        <v>1.570878462135775e-16</v>
+      </c>
+      <c r="I96" s="1" t="n">
         <v>2931.710982638889</v>
       </c>
+      <c r="J96" t="n">
+        <v>7.84313725490196</v>
+      </c>
       <c r="K96" t="n">
-        <v>7.84313725490196</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="n">
         <v>20</v>
       </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>{'Normal': 20}</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr">
-        <is>
-          <t>{'Normal': 20}</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
         <is>
           <t>{'blocker': 6, 'critical': 2, 'major': 6, 'normal': 3, 'trivial': 3}</t>
         </is>
@@ -6401,35 +5925,30 @@
           <t>0.00384</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>0.02975</t>
-        </is>
+      <c r="G97" t="n">
+        <v>0.04154196130152232</v>
       </c>
       <c r="H97" t="n">
-        <v>-5.49285391962799e-05</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" s="1" t="n">
+        <v>0.006013043279204062</v>
+      </c>
+      <c r="I97" s="1" t="n">
         <v>2754.093096064815</v>
       </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="n">
         <v>2</v>
       </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
         <is>
           <t>{'critical': 1, 'minor': 1}</t>
         </is>
@@ -6464,35 +5983,30 @@
           <t>0.00367</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>0.02975</t>
-        </is>
+      <c r="G98" t="n">
+        <v>0.0001729583923051375</v>
       </c>
       <c r="H98" t="n">
-        <v>3.017464331458541e-07</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" s="1" t="n">
+        <v>0.00862974077649868</v>
+      </c>
+      <c r="I98" s="1" t="n">
         <v>2883.104670138889</v>
       </c>
+      <c r="J98" t="n">
+        <v>4.651162790697675</v>
+      </c>
       <c r="K98" t="n">
-        <v>4.651162790697675</v>
+        <v>2</v>
       </c>
       <c r="L98" t="n">
-        <v>2</v>
-      </c>
-      <c r="M98" t="n">
         <v>4</v>
       </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>{'Normal': 4}</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr">
-        <is>
-          <t>{'Normal': 4}</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
         <is>
           <t>{'blocker': 3, 'minor': 1}</t>
         </is>
@@ -6527,35 +6041,30 @@
           <t>0.00440</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>0.03443</t>
-        </is>
+      <c r="G99" t="n">
+        <v>0.01257315992738332</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1373248190362586</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" s="1" t="n">
+        <v>0.03467543352620209</v>
+      </c>
+      <c r="I99" s="1" t="n">
         <v>2581.755472222223</v>
       </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L99" t="n">
-        <v>4</v>
-      </c>
-      <c r="M99" t="n">
         <v>5</v>
       </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>{'Normal': 5}</t>
+        </is>
+      </c>
       <c r="N99" t="inlineStr">
-        <is>
-          <t>{'Normal': 5}</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
         <is>
           <t>{'major': 3, 'normal': 2}</t>
         </is>
@@ -6590,35 +6099,30 @@
           <t>0.00156</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>0.02968</t>
-        </is>
+      <c r="G100" t="n">
+        <v>0.003409352620816044</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.01339062893900112</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" s="1" t="n">
+        <v>0.01349962195049873</v>
+      </c>
+      <c r="I100" s="1" t="n">
         <v>2688.745590277778</v>
       </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N100" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -6653,35 +6157,30 @@
           <t>0.00345</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>0.05018</t>
-        </is>
+      <c r="G101" t="n">
+        <v>0.02187797130013287</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.0153470582841476</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" s="1" t="n">
+        <v>0.008617994930344821</v>
+      </c>
+      <c r="I101" s="1" t="n">
         <v>1669.084297839502</v>
       </c>
+      <c r="J101" t="n">
+        <v>2.325581395348837</v>
+      </c>
       <c r="K101" t="n">
-        <v>2.325581395348837</v>
+        <v>3</v>
       </c>
       <c r="L101" t="n">
-        <v>3</v>
-      </c>
-      <c r="M101" t="n">
         <v>6</v>
       </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>{'High': 1, 'Normal': 5}</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr">
-        <is>
-          <t>{'High': 1, 'Normal': 5}</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
         <is>
           <t>{'critical': 1, 'minor': 1, 'normal': 4}</t>
         </is>
@@ -6716,35 +6215,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>0.02968</t>
-        </is>
+      <c r="G102" t="n">
+        <v>0.001351811325104378</v>
       </c>
       <c r="H102" t="n">
-        <v>4.212837060579691e-07</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" s="1" t="n">
+        <v>0.008886965157120891</v>
+      </c>
+      <c r="I102" s="1" t="n">
         <v>2346.898229166667</v>
       </c>
+      <c r="J102" t="n">
+        <v>7.692307692307693</v>
+      </c>
       <c r="K102" t="n">
-        <v>7.692307692307693</v>
+        <v>1</v>
       </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N102" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
         <is>
           <t>{'blocker': 1}</t>
         </is>
@@ -6779,35 +6273,30 @@
           <t>0.00094</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>0.02975</t>
-        </is>
+      <c r="G103" t="n">
+        <v>0.01060680943069524</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.001070944405625023</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" s="1" t="n">
+        <v>0.003696575899738608</v>
+      </c>
+      <c r="I103" s="1" t="n">
         <v>1829.659502314815</v>
       </c>
+      <c r="J103" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K103" t="n">
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N103" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -6842,35 +6331,30 @@
           <t>0.00158</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>0.02975</t>
-        </is>
+      <c r="G104" t="n">
+        <v>0.04305012290617914</v>
       </c>
       <c r="H104" t="n">
-        <v>-3.455757799037905e-06</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" s="1" t="n">
+        <v>0.0187572007674751</v>
+      </c>
+      <c r="I104" s="1" t="n">
         <v>1821.973576388889</v>
       </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="n">
         <v>2</v>
       </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
+      </c>
       <c r="N104" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
         <is>
           <t>{'major': 1, 'normal': 1}</t>
         </is>
@@ -6905,35 +6389,30 @@
           <t>0.00344</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>0.05026</t>
-        </is>
+      <c r="G105" t="n">
+        <v>2.046570098915437e-16</v>
       </c>
       <c r="H105" t="n">
-        <v>-7.108055890268389e-07</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" s="1" t="n">
+        <v>0.000654073341540459</v>
+      </c>
+      <c r="I105" s="1" t="n">
         <v>1610.33431712963</v>
       </c>
+      <c r="J105" t="n">
+        <v>10</v>
+      </c>
       <c r="K105" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N105" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
         <is>
           <t>{'major': 1}</t>
         </is>
@@ -6968,35 +6447,30 @@
           <t>0.00707</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>0.05037</t>
-        </is>
+      <c r="G106" t="n">
+        <v>0.002727060452405136</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.02363834584550389</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" s="1" t="n">
+        <v>0.003363912115134584</v>
+      </c>
+      <c r="I106" s="1" t="n">
         <v>1599.282164351852</v>
       </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N106" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -7031,35 +6505,30 @@
           <t>0.00344</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>0.05088</t>
-        </is>
+      <c r="G107" t="n">
+        <v>0.002894599975910598</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0001782115356481645</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" s="1" t="n">
+        <v>0.01444835326110454</v>
+      </c>
+      <c r="I107" s="1" t="n">
         <v>1499.23400462963</v>
       </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N107" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
         <is>
           <t>{'blocker': 1}</t>
         </is>
@@ -7094,35 +6563,30 @@
           <t>0.00362</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>0.02975</t>
-        </is>
+      <c r="G108" t="n">
+        <v>0.007456245293723822</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.02615582395598434</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" s="1" t="n">
+        <v>0.01049765051063491</v>
+      </c>
+      <c r="I108" s="1" t="n">
         <v>1464.489227430556</v>
       </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="n">
         <v>4</v>
       </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>{'Normal': 4}</t>
+        </is>
+      </c>
       <c r="N108" t="inlineStr">
-        <is>
-          <t>{'Normal': 4}</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
         <is>
           <t>{'major': 1, 'normal': 3}</t>
         </is>
@@ -7157,35 +6621,30 @@
           <t>0.00360</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>0.05037</t>
-        </is>
+      <c r="G109" t="n">
+        <v>0.008845408383751488</v>
       </c>
       <c r="H109" t="n">
-        <v>0.002716858011982715</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" s="1" t="n">
+        <v>0.01574773202691198</v>
+      </c>
+      <c r="I109" s="1" t="n">
         <v>1424.499834104942</v>
       </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L109" t="n">
         <v>3</v>
       </c>
-      <c r="M109" t="n">
-        <v>3</v>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>{'Normal': 3}</t>
+        </is>
       </c>
       <c r="N109" t="inlineStr">
-        <is>
-          <t>{'Normal': 3}</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
         <is>
           <t>{'major': 2, 'normal': 1}</t>
         </is>
@@ -7220,35 +6679,30 @@
           <t>0.00360</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>0.02975</t>
-        </is>
+      <c r="G110" t="n">
+        <v>0.01284867478307618</v>
       </c>
       <c r="H110" t="n">
-        <v>7.69881510274782e-06</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" s="1" t="n">
+        <v>0.01115493972338663</v>
+      </c>
+      <c r="I110" s="1" t="n">
         <v>1397.228486111111</v>
       </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="n">
         <v>5</v>
       </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>{'Normal': 5}</t>
+        </is>
+      </c>
       <c r="N110" t="inlineStr">
-        <is>
-          <t>{'Normal': 5}</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
         <is>
           <t>{'critical': 3, 'major': 1, 'trivial': 1}</t>
         </is>
@@ -7283,35 +6737,30 @@
           <t>0.05522</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>0.05181</t>
-        </is>
+      <c r="G111" t="n">
+        <v>0.005134052398290374</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0147182282515488</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" s="1" t="n">
+        <v>0.007658600479424093</v>
+      </c>
+      <c r="I111" s="1" t="n">
         <v>908.5553620113194</v>
       </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L111" t="n">
-        <v>9</v>
-      </c>
-      <c r="M111" t="n">
         <v>36</v>
       </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>{'High': 3, 'Normal': 33}</t>
+        </is>
+      </c>
       <c r="N111" t="inlineStr">
-        <is>
-          <t>{'High': 3, 'Normal': 33}</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
         <is>
           <t>{'blocker': 5, 'critical': 14, 'minor': 3, 'normal': 13, 'trivial': 1}</t>
         </is>
@@ -7346,35 +6795,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>0.02968</t>
-        </is>
+      <c r="G112" t="n">
+        <v>0.02673024786927396</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0005762304714495047</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" s="1" t="n">
+        <v>0.01487894931857024</v>
+      </c>
+      <c r="I112" s="1" t="n">
         <v>1376.086979166667</v>
       </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N112" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -7409,35 +6853,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>0.02968</t>
-        </is>
+      <c r="G113" t="n">
+        <v>0.01306388522399276</v>
       </c>
       <c r="H113" t="n">
-        <v>-4.416090869322174e-06</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" s="1" t="n">
+        <v>0.03124034280208562</v>
+      </c>
+      <c r="I113" s="1" t="n">
         <v>1375.439525462963</v>
       </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N113" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -7472,35 +6911,30 @@
           <t>0.00217</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>0.05181</t>
-        </is>
+      <c r="G114" t="n">
+        <v>0.03772742199425607</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0001097941203983302</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" s="1" t="n">
+        <v>0.02597193813134984</v>
+      </c>
+      <c r="I114" s="1" t="n">
         <v>892.0915656565625</v>
       </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L114" t="n">
-        <v>8</v>
-      </c>
-      <c r="M114" t="n">
         <v>11</v>
       </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>{'Normal': 11}</t>
+        </is>
+      </c>
       <c r="N114" t="inlineStr">
-        <is>
-          <t>{'Normal': 11}</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
         <is>
           <t>{'critical': 2, 'major': 2, 'minor': 2, 'normal': 5}</t>
         </is>
@@ -7535,35 +6969,30 @@
           <t>0.05569</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>0.05037</t>
-        </is>
+      <c r="G115" t="n">
+        <v>0.01804416498008798</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0006107483735609588</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" s="1" t="n">
+        <v>0.04066275419145955</v>
+      </c>
+      <c r="I115" s="1" t="n">
         <v>1105.895324074074</v>
       </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N115" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -7598,35 +7027,30 @@
           <t>0.00217</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>0.05037</t>
-        </is>
+      <c r="G116" t="n">
+        <v>0.008558704229425227</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0464355590414574</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" s="1" t="n">
+        <v>0.02442246237980898</v>
+      </c>
+      <c r="I116" s="1" t="n">
         <v>925.2264026063078</v>
       </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L116" t="n">
-        <v>6</v>
-      </c>
-      <c r="M116" t="n">
         <v>27</v>
       </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>{'High': 1, 'Low': 1, 'Normal': 25}</t>
+        </is>
+      </c>
       <c r="N116" t="inlineStr">
-        <is>
-          <t>{'High': 1, 'Low': 1, 'Normal': 25}</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
         <is>
           <t>{'critical': 3, 'enhancement': 1, 'major': 4, 'minor': 6, 'normal': 13}</t>
         </is>
@@ -7661,35 +7085,30 @@
           <t>0.00092</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>0.05037</t>
-        </is>
+      <c r="G117" t="n">
+        <v>0.02108786009598598</v>
       </c>
       <c r="H117" t="n">
-        <v>1.773984373249715e-06</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" s="1" t="n">
+        <v>0.01452389536094655</v>
+      </c>
+      <c r="I117" s="1" t="n">
         <v>938.8261987433912</v>
       </c>
+      <c r="J117" t="n">
+        <v>3.571428571428571</v>
+      </c>
       <c r="K117" t="n">
-        <v>3.571428571428571</v>
+        <v>2</v>
       </c>
       <c r="L117" t="n">
-        <v>2</v>
-      </c>
-      <c r="M117" t="n">
         <v>7</v>
       </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>{'Normal': 7}</t>
+        </is>
+      </c>
       <c r="N117" t="inlineStr">
-        <is>
-          <t>{'Normal': 7}</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
         <is>
           <t>{'enhancement': 1, 'normal': 6}</t>
         </is>
@@ -7724,35 +7143,30 @@
           <t>0.00091</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>0.03961</t>
-        </is>
+      <c r="G118" t="n">
+        <v>0.003624114468751243</v>
       </c>
       <c r="H118" t="n">
-        <v>-1.01659555796445e-05</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" s="1" t="n">
+        <v>0.006151868125779897</v>
+      </c>
+      <c r="I118" s="1" t="n">
         <v>878.6154296875</v>
       </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L118" t="n">
-        <v>2</v>
-      </c>
-      <c r="M118" t="n">
         <v>8</v>
       </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>{'Normal': 8}</t>
+        </is>
+      </c>
       <c r="N118" t="inlineStr">
-        <is>
-          <t>{'Normal': 8}</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
         <is>
           <t>{'critical': 1, 'major': 1, 'minor': 2, 'normal': 3, 'trivial': 1}</t>
         </is>
@@ -7787,35 +7201,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>0.03953</t>
-        </is>
+      <c r="G119" t="n">
+        <v>0.00653297544247498</v>
       </c>
       <c r="H119" t="n">
-        <v>-1.284943925248074e-07</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" s="1" t="n">
+        <v>0.01168743098746336</v>
+      </c>
+      <c r="I119" s="1" t="n">
         <v>2706.588506944444</v>
       </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>{'High': 1}</t>
+        </is>
       </c>
       <c r="N119" t="inlineStr">
-        <is>
-          <t>{'High': 1}</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr">
         <is>
           <t>{'major': 1}</t>
         </is>
@@ -7850,35 +7259,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>0.04135</t>
-        </is>
+      <c r="G120" t="n">
+        <v>0.09491693341760875</v>
       </c>
       <c r="H120" t="n">
-        <v>0.03541436142805099</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" s="1" t="n">
+        <v>0.01579036326422181</v>
+      </c>
+      <c r="I120" s="1" t="n">
         <v>2706.517997685185</v>
       </c>
+      <c r="J120" t="n">
+        <v>18.18181818181818</v>
+      </c>
       <c r="K120" t="n">
-        <v>18.18181818181818</v>
+        <v>1</v>
       </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>{'High': 1}</t>
+        </is>
       </c>
       <c r="N120" t="inlineStr">
-        <is>
-          <t>{'High': 1}</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
         <is>
           <t>{'critical': 1}</t>
         </is>
@@ -7913,35 +7317,30 @@
           <t>0.05508</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>0.05090</t>
-        </is>
+      <c r="G121" t="n">
+        <v>0.07946195707881901</v>
       </c>
       <c r="H121" t="n">
-        <v>2.635014849888849e-07</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" s="1" t="n">
+        <v>0.1865610946208552</v>
+      </c>
+      <c r="I121" s="1" t="n">
         <v>2677.587159722222</v>
       </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L121" t="n">
-        <v>3</v>
-      </c>
-      <c r="M121" t="n">
         <v>5</v>
       </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>{'High': 4, 'Normal': 1}</t>
+        </is>
+      </c>
       <c r="N121" t="inlineStr">
-        <is>
-          <t>{'High': 4, 'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr">
         <is>
           <t>{'major': 2, 'minor': 2, 'normal': 1}</t>
         </is>
@@ -7976,35 +7375,30 @@
           <t>0.05544</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>0.05037</t>
-        </is>
+      <c r="G122" t="n">
+        <v>0.03725779249953593</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.05606663254033503</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" s="1" t="n">
+        <v>0.006232901942979693</v>
+      </c>
+      <c r="I122" s="1" t="n">
         <v>2680.12720775463</v>
       </c>
+      <c r="J122" t="n">
+        <v>2.857142857142857</v>
+      </c>
       <c r="K122" t="n">
-        <v>2.857142857142857</v>
+        <v>3</v>
       </c>
       <c r="L122" t="n">
-        <v>3</v>
-      </c>
-      <c r="M122" t="n">
         <v>4</v>
       </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>{'High': 1, 'Normal': 2, 'Urgent': 1}</t>
+        </is>
+      </c>
       <c r="N122" t="inlineStr">
-        <is>
-          <t>{'High': 1, 'Normal': 2, 'Urgent': 1}</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr">
         <is>
           <t>{'blocker': 1, 'critical': 1, 'major': 1, 'normal': 1}</t>
         </is>
@@ -8039,35 +7433,30 @@
           <t>0.05491</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>0.04256</t>
-        </is>
+      <c r="G123" t="n">
+        <v>0.02102252092006959</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.01572585974999133</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" s="1" t="n">
+        <v>0.01104674864964827</v>
+      </c>
+      <c r="I123" s="1" t="n">
         <v>2697.664918981482</v>
       </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="n">
         <v>2</v>
       </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
+      </c>
       <c r="N123" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr">
         <is>
           <t>{'normal': 2}</t>
         </is>
@@ -8102,35 +7491,30 @@
           <t>0.05606</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>0.05217</t>
-        </is>
+      <c r="G124" t="n">
+        <v>0.04719113466442526</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.003146637890321401</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" s="1" t="n">
+        <v>0.01940491923669055</v>
+      </c>
+      <c r="I124" s="1" t="n">
         <v>2698.910532407408</v>
       </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>{'High': 1}</t>
+        </is>
       </c>
       <c r="N124" t="inlineStr">
-        <is>
-          <t>{'High': 1}</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr">
         <is>
           <t>{'normal': 1}</t>
         </is>
@@ -8165,35 +7549,30 @@
           <t>0.05589</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>0.05213</t>
-        </is>
+      <c r="G125" t="n">
+        <v>0.08747314304244282</v>
       </c>
       <c r="H125" t="n">
-        <v>0.09182510381343315</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" s="1" t="n">
+        <v>0.0228171500169236</v>
+      </c>
+      <c r="I125" s="1" t="n">
         <v>2684.842540509259</v>
       </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L125" t="n">
         <v>2</v>
       </c>
-      <c r="M125" t="n">
-        <v>2</v>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>{'High': 1, 'Normal': 1}</t>
+        </is>
       </c>
       <c r="N125" t="inlineStr">
-        <is>
-          <t>{'High': 1, 'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr">
         <is>
           <t>{'normal': 2}</t>
         </is>
@@ -8228,35 +7607,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G126" t="n">
+        <v>0.0007264571238437741</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.002824081237776577</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" s="1" t="n">
+        <v>0.01444177764805579</v>
+      </c>
+      <c r="I126" s="1" t="n">
         <v>2682.300306712963</v>
       </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="n">
         <v>2</v>
       </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>{'Normal': 2}</t>
+        </is>
+      </c>
       <c r="N126" t="inlineStr">
-        <is>
-          <t>{'Normal': 2}</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
         <is>
           <t>{'normal': 2}</t>
         </is>
@@ -8291,35 +7665,30 @@
           <t>0.00826</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>0.05090</t>
-        </is>
+      <c r="G127" t="n">
+        <v>0.008840529583895458</v>
       </c>
       <c r="H127" t="n">
-        <v>0.02360077164828066</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" s="1" t="n">
+        <v>0.07832118531514179</v>
+      </c>
+      <c r="I127" s="1" t="n">
         <v>2684.711030092592</v>
       </c>
+      <c r="J127" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="K127" t="n">
-        <v>11.11111111111111</v>
+        <v>1</v>
       </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>{'High': 1}</t>
+        </is>
       </c>
       <c r="N127" t="inlineStr">
-        <is>
-          <t>{'High': 1}</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr">
         <is>
           <t>{'critical': 1}</t>
         </is>
@@ -8354,35 +7723,30 @@
           <t>0.05474</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>0.01543</t>
-        </is>
+      <c r="G128" t="n">
+        <v>0.04628750402852896</v>
       </c>
       <c r="H128" t="n">
-        <v>0.008222561830639885</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" s="1" t="n">
+        <v>0.06214180756648116</v>
+      </c>
+      <c r="I128" s="1" t="n">
         <v>2672.169282407408</v>
       </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N128" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
         <is>
           <t>{'enhancement': 1}</t>
         </is>
@@ -8417,35 +7781,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>0.00382</t>
-        </is>
+      <c r="G129" t="n">
+        <v>0.01524168578448181</v>
       </c>
       <c r="H129" t="n">
-        <v>0.02430069442027902</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" s="1" t="n">
+        <v>0.02867949611233678</v>
+      </c>
+      <c r="I129" s="1" t="n">
         <v>2658.094293981481</v>
       </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>{'Normal': 1}</t>
+        </is>
       </c>
       <c r="N129" t="inlineStr">
-        <is>
-          <t>{'Normal': 1}</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr">
         <is>
           <t>{'critical': 1}</t>
         </is>
